--- a/covid.xlsx
+++ b/covid.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\CEPER\ceper_san2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\CEPER\pres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873B7AF7-932A-4632-9C7C-FDB075C7D93C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B31CC-227A-41DF-BF9D-6CBF82F2EBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{232BCDCC-55DA-4F0E-855F-74B78D4BA735}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -130,28 +130,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,18 +181,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,325 +508,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB360C5-D4B9-4434-9102-B4764C6D106B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A3B67F-13E2-4C96-814E-14442F48E8CA}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>55881</v>
+        <v>65959</v>
       </c>
       <c r="C2" s="5">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>129445</v>
+        <v>147882</v>
       </c>
       <c r="C3" s="6">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>310919</v>
+        <v>339510</v>
       </c>
       <c r="C4" s="5">
-        <v>10642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+        <v>11818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>82868</v>
+        <v>92462</v>
       </c>
       <c r="C5" s="6">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>664904</v>
+        <v>770430</v>
       </c>
       <c r="C6" s="5">
-        <v>11388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+        <v>14224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>41679</v>
+        <v>511019</v>
       </c>
       <c r="C7" s="6">
-        <v>11104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+        <v>12870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>292714</v>
+        <v>330756</v>
       </c>
       <c r="C8" s="5">
-        <v>4791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>32163</v>
+        <v>361717</v>
       </c>
       <c r="C9" s="6">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+        <v>6981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>388554</v>
+        <v>455997</v>
       </c>
       <c r="C10" s="5">
-        <v>8431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+        <v>10534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>217302</v>
+        <v>234635</v>
       </c>
       <c r="C11" s="6">
-        <v>4977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>853459</v>
+        <v>1036301</v>
       </c>
       <c r="C12" s="5">
-        <v>17974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+        <v>22055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>246469</v>
+        <v>289823</v>
       </c>
       <c r="C13" s="6">
-        <v>5716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+        <v>6938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>360629</v>
+        <v>400523</v>
       </c>
       <c r="C14" s="5">
-        <v>8435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+        <v>9899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6">
-        <v>215527</v>
+        <v>247312</v>
       </c>
       <c r="C15" s="6">
-        <v>4419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>294479</v>
+        <v>331326</v>
       </c>
       <c r="C16" s="5">
-        <v>10911</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+        <v>11698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>171668</v>
+        <v>194359</v>
       </c>
       <c r="C17" s="6">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>627907</v>
+        <v>799813</v>
       </c>
       <c r="C18" s="5">
-        <v>11358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+        <v>14969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="6">
-        <v>577183</v>
+        <v>623460</v>
       </c>
       <c r="C19" s="6">
-        <v>32574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+        <v>35180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>145427</v>
+        <v>176207</v>
       </c>
       <c r="C20" s="5">
-        <v>2787</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>793008</v>
+      </c>
+      <c r="C21" s="6">
+        <v>17157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>767652</v>
+      </c>
+      <c r="C22" s="5">
+        <v>9651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>166617</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2311101</v>
+      </c>
+      <c r="C24" s="5">
+        <v>67602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>202831</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>186589</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
-        <v>80923</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5">
-        <v>619385</v>
-      </c>
-      <c r="C22" s="5">
-        <v>12029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6">
-        <v>652895</v>
-      </c>
-      <c r="C23" s="6">
-        <v>7114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5">
-        <v>149077</v>
-      </c>
-      <c r="C24" s="5">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2002640</v>
-      </c>
-      <c r="C25" s="6">
-        <v>58528</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5">
-        <v>17825</v>
-      </c>
-      <c r="C26" s="5">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="B27" s="6">
-        <v>163472</v>
+        <v>87649</v>
       </c>
       <c r="C27" s="6">
-        <v>3563</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>11137</v>
+        <v>133050</v>
       </c>
       <c r="C28" s="5">
-        <v>1496</v>
+        <v>1821</v>
       </c>
     </row>
   </sheetData>
